--- a/pred_ohlcv/54_21/2020-01-13 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LRC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>1253714.733029814</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1212101.475629814</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1420588.93276088</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1274222.86086088</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>279289.4412702119</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-22463.37382978806</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-316807.682429788</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-319996.672029788</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-399257.680129788</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-410690.739029788</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-410668.739029788</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-500364.880829788</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-511520.380829788</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-672238.3368297881</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-631094.3759297881</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-623655.4840297881</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-620241.8988297881</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-631437.2232297881</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-614010.5389297882</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-657431.5833297881</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-721742.388529788</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-725693.152829788</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-755038.430529788</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-898056.3986297881</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-706182.552515164</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LRC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>1253714.733029814</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1212101.475629814</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1276983.103629814</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1420588.93276088</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1274222.86086088</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1068851.80926088</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1101980.05926088</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>279289.4412702119</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-22463.37382978806</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-178187.8865297881</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-316807.682429788</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-319996.672029788</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-399257.680129788</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-410690.739029788</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-410668.739029788</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-500364.880829788</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-511520.380829788</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-672238.3368297881</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-631094.3759297881</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-623655.4840297881</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-620241.8988297881</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-631437.2232297881</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-614010.5389297882</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-657431.5833297881</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-721742.388529788</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-725693.152829788</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-755038.430529788</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-898056.3986297881</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-760340.2618297881</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-751858.6738297881</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-833824.2368297881</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-833804.2368297881</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-850555.786529788</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-835025.291829788</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-688435.6146297879</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-658076.552515164</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-706182.552515164</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
